--- a/Team-Data/2008-09/3-12-2008-09.xlsx
+++ b/Team-Data/2008-09/3-12-2008-09.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -819,7 +886,7 @@
         <v>20</v>
       </c>
       <c r="BC2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-12-2008-09</t>
+          <t>2009-03-12</t>
         </is>
       </c>
     </row>
@@ -848,16 +915,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E3" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F3" t="n">
         <v>16</v>
       </c>
       <c r="G3" t="n">
-        <v>0.75</v>
+        <v>0.754</v>
       </c>
       <c r="H3" t="n">
         <v>48.4</v>
@@ -869,7 +936,7 @@
         <v>76.90000000000001</v>
       </c>
       <c r="K3" t="n">
-        <v>0.487</v>
+        <v>0.486</v>
       </c>
       <c r="L3" t="n">
         <v>6.5</v>
@@ -878,55 +945,55 @@
         <v>16.5</v>
       </c>
       <c r="N3" t="n">
-        <v>0.394</v>
+        <v>0.392</v>
       </c>
       <c r="O3" t="n">
         <v>20.1</v>
       </c>
       <c r="P3" t="n">
-        <v>26</v>
+        <v>26.1</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.774</v>
+        <v>0.77</v>
       </c>
       <c r="R3" t="n">
         <v>10.7</v>
       </c>
       <c r="S3" t="n">
-        <v>31.8</v>
+        <v>31.7</v>
       </c>
       <c r="T3" t="n">
-        <v>42.5</v>
+        <v>42.4</v>
       </c>
       <c r="U3" t="n">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="V3" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="W3" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="X3" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="AA3" t="n">
         <v>22.7</v>
       </c>
       <c r="AB3" t="n">
-        <v>101.5</v>
+        <v>101.3</v>
       </c>
       <c r="AC3" t="n">
         <v>8.6</v>
       </c>
       <c r="AD3" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AE3" t="n">
         <v>3</v>
@@ -938,7 +1005,7 @@
         <v>3</v>
       </c>
       <c r="AH3" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AI3" t="n">
         <v>9</v>
@@ -956,16 +1023,16 @@
         <v>21</v>
       </c>
       <c r="AN3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO3" t="n">
         <v>9</v>
       </c>
       <c r="AP3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AQ3" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AR3" t="n">
         <v>18</v>
@@ -977,7 +1044,7 @@
         <v>8</v>
       </c>
       <c r="AU3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV3" t="n">
         <v>27</v>
@@ -986,7 +1053,7 @@
         <v>7</v>
       </c>
       <c r="AX3" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AY3" t="n">
         <v>12</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-12-2008-09</t>
+          <t>2009-03-12</t>
         </is>
       </c>
     </row>
@@ -1108,19 +1175,19 @@
         <v>-1.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AF4" t="n">
         <v>17</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AH4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI4" t="n">
         <v>30</v>
@@ -1177,7 +1244,7 @@
         <v>20</v>
       </c>
       <c r="BA4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB4" t="n">
         <v>30</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-12-2008-09</t>
+          <t>2009-03-12</t>
         </is>
       </c>
     </row>
@@ -1212,16 +1279,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E5" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F5" t="n">
         <v>36</v>
       </c>
       <c r="G5" t="n">
-        <v>0.438</v>
+        <v>0.446</v>
       </c>
       <c r="H5" t="n">
         <v>48.7</v>
@@ -1230,43 +1297,43 @@
         <v>37.5</v>
       </c>
       <c r="J5" t="n">
-        <v>83.59999999999999</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="K5" t="n">
-        <v>0.449</v>
+        <v>0.45</v>
       </c>
       <c r="L5" t="n">
         <v>5.9</v>
       </c>
       <c r="M5" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="N5" t="n">
         <v>0.38</v>
       </c>
       <c r="O5" t="n">
-        <v>19.8</v>
+        <v>20</v>
       </c>
       <c r="P5" t="n">
-        <v>25</v>
+        <v>25.3</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.792</v>
+        <v>0.791</v>
       </c>
       <c r="R5" t="n">
         <v>12.2</v>
       </c>
       <c r="S5" t="n">
-        <v>30.6</v>
+        <v>30.5</v>
       </c>
       <c r="T5" t="n">
-        <v>42.8</v>
+        <v>42.7</v>
       </c>
       <c r="U5" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="V5" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="W5" t="n">
         <v>7.6</v>
@@ -1275,22 +1342,22 @@
         <v>5.6</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="Z5" t="n">
         <v>21.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="AB5" t="n">
-        <v>100.8</v>
+        <v>100.9</v>
       </c>
       <c r="AC5" t="n">
-        <v>-1.8</v>
+        <v>-1.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AE5" t="n">
         <v>18</v>
@@ -1308,7 +1375,7 @@
         <v>8</v>
       </c>
       <c r="AJ5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK5" t="n">
         <v>22</v>
@@ -1323,10 +1390,10 @@
         <v>7</v>
       </c>
       <c r="AO5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP5" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AQ5" t="n">
         <v>8</v>
@@ -1344,7 +1411,7 @@
         <v>14</v>
       </c>
       <c r="AV5" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AW5" t="n">
         <v>9</v>
@@ -1359,13 +1426,13 @@
         <v>19</v>
       </c>
       <c r="BA5" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="BB5" t="n">
         <v>11</v>
       </c>
       <c r="BC5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-12-2008-09</t>
+          <t>2009-03-12</t>
         </is>
       </c>
     </row>
@@ -1397,112 +1464,112 @@
         <v>63</v>
       </c>
       <c r="E6" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.794</v>
       </c>
       <c r="H6" t="n">
         <v>48.1</v>
       </c>
       <c r="I6" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="J6" t="n">
-        <v>78.09999999999999</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="K6" t="n">
-        <v>0.469</v>
+        <v>0.468</v>
       </c>
       <c r="L6" t="n">
-        <v>8.1</v>
+        <v>7.9</v>
       </c>
       <c r="M6" t="n">
-        <v>20.7</v>
+        <v>20.4</v>
       </c>
       <c r="N6" t="n">
-        <v>0.394</v>
+        <v>0.389</v>
       </c>
       <c r="O6" t="n">
         <v>18.8</v>
       </c>
       <c r="P6" t="n">
-        <v>24.9</v>
+        <v>25</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.756</v>
+        <v>0.754</v>
       </c>
       <c r="R6" t="n">
-        <v>10.8</v>
+        <v>10.7</v>
       </c>
       <c r="S6" t="n">
-        <v>30.8</v>
+        <v>31</v>
       </c>
       <c r="T6" t="n">
-        <v>41.6</v>
+        <v>41.7</v>
       </c>
       <c r="U6" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="V6" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="W6" t="n">
         <v>7.6</v>
       </c>
       <c r="X6" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Y6" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="Z6" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="AA6" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="AB6" t="n">
-        <v>100.2</v>
+        <v>99.7</v>
       </c>
       <c r="AC6" t="n">
-        <v>9.5</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AD6" t="n">
         <v>25</v>
       </c>
       <c r="AE6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF6" t="n">
         <v>1</v>
       </c>
       <c r="AG6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH6" t="n">
         <v>27</v>
       </c>
       <c r="AI6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ6" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AK6" t="n">
         <v>5</v>
       </c>
       <c r="AL6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AM6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AN6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AO6" t="n">
         <v>19</v>
@@ -1511,7 +1578,7 @@
         <v>15</v>
       </c>
       <c r="AQ6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AR6" t="n">
         <v>17</v>
@@ -1523,7 +1590,7 @@
         <v>13</v>
       </c>
       <c r="AU6" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AV6" t="n">
         <v>7</v>
@@ -1535,16 +1602,16 @@
         <v>6</v>
       </c>
       <c r="AY6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ6" t="n">
         <v>7</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>6</v>
       </c>
       <c r="BA6" t="n">
         <v>21</v>
       </c>
       <c r="BB6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BC6" t="n">
         <v>1</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-12-2008-09</t>
+          <t>2009-03-12</t>
         </is>
       </c>
     </row>
@@ -1666,7 +1733,7 @@
         <v>11</v>
       </c>
       <c r="AH7" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI7" t="n">
         <v>7</v>
@@ -1717,7 +1784,7 @@
         <v>7</v>
       </c>
       <c r="AY7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ7" t="n">
         <v>3</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-12-2008-09</t>
+          <t>2009-03-12</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>2.4</v>
       </c>
       <c r="AD8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE8" t="n">
         <v>7</v>
@@ -1851,13 +1918,13 @@
         <v>25</v>
       </c>
       <c r="AI8" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AJ8" t="n">
         <v>23</v>
       </c>
       <c r="AK8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AL8" t="n">
         <v>19</v>
@@ -1866,7 +1933,7 @@
         <v>18</v>
       </c>
       <c r="AN8" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AO8" t="n">
         <v>2</v>
@@ -1875,7 +1942,7 @@
         <v>1</v>
       </c>
       <c r="AQ8" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AR8" t="n">
         <v>16</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-12-2008-09</t>
+          <t>2009-03-12</t>
         </is>
       </c>
     </row>
@@ -2024,7 +2091,7 @@
         <v>15</v>
       </c>
       <c r="AF9" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG9" t="n">
         <v>15</v>
@@ -2066,7 +2133,7 @@
         <v>17</v>
       </c>
       <c r="AT9" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AU9" t="n">
         <v>18</v>
@@ -2078,7 +2145,7 @@
         <v>28</v>
       </c>
       <c r="AX9" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AY9" t="n">
         <v>5</v>
@@ -2093,7 +2160,7 @@
         <v>28</v>
       </c>
       <c r="BC9" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-12-2008-09</t>
+          <t>2009-03-12</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>-3.6</v>
       </c>
       <c r="AD10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE10" t="n">
         <v>24</v>
@@ -2224,7 +2291,7 @@
         <v>13</v>
       </c>
       <c r="AL10" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AM10" t="n">
         <v>17</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-12-2008-09</t>
+          <t>2009-03-12</t>
         </is>
       </c>
     </row>
@@ -2382,13 +2449,13 @@
         <v>3.8</v>
       </c>
       <c r="AD11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE11" t="n">
         <v>6</v>
       </c>
       <c r="AF11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG11" t="n">
         <v>6</v>
@@ -2409,7 +2476,7 @@
         <v>7</v>
       </c>
       <c r="AM11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AN11" t="n">
         <v>13</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-12-2008-09</t>
+          <t>2009-03-12</t>
         </is>
       </c>
     </row>
@@ -2564,10 +2631,10 @@
         <v>-1.7</v>
       </c>
       <c r="AD12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE12" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AF12" t="n">
         <v>22</v>
@@ -2588,7 +2655,7 @@
         <v>19</v>
       </c>
       <c r="AL12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AM12" t="n">
         <v>3</v>
@@ -2609,7 +2676,7 @@
         <v>11</v>
       </c>
       <c r="AS12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AT12" t="n">
         <v>2</v>
@@ -2639,7 +2706,7 @@
         <v>5</v>
       </c>
       <c r="BC12" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-12-2008-09</t>
+          <t>2009-03-12</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>-8.699999999999999</v>
       </c>
       <c r="AD13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE13" t="n">
         <v>28</v>
@@ -2791,7 +2858,7 @@
         <v>13</v>
       </c>
       <c r="AS13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AT13" t="n">
         <v>21</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-12-2008-09</t>
+          <t>2009-03-12</t>
         </is>
       </c>
     </row>
@@ -2865,13 +2932,13 @@
         <v>48.3</v>
       </c>
       <c r="I14" t="n">
-        <v>40.7</v>
+        <v>40.6</v>
       </c>
       <c r="J14" t="n">
-        <v>85.5</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="K14" t="n">
-        <v>0.477</v>
+        <v>0.476</v>
       </c>
       <c r="L14" t="n">
         <v>6.8</v>
@@ -2880,25 +2947,25 @@
         <v>18.8</v>
       </c>
       <c r="N14" t="n">
-        <v>0.361</v>
+        <v>0.363</v>
       </c>
       <c r="O14" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="P14" t="n">
-        <v>26.2</v>
+        <v>26.3</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.77</v>
+        <v>0.771</v>
       </c>
       <c r="R14" t="n">
         <v>12.6</v>
       </c>
       <c r="S14" t="n">
-        <v>31.5</v>
+        <v>31.7</v>
       </c>
       <c r="T14" t="n">
-        <v>44.1</v>
+        <v>44.3</v>
       </c>
       <c r="U14" t="n">
         <v>23.5</v>
@@ -2916,31 +2983,31 @@
         <v>4.7</v>
       </c>
       <c r="Z14" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="AA14" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="AB14" t="n">
-        <v>108.5</v>
+        <v>108.4</v>
       </c>
       <c r="AC14" t="n">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="AD14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE14" t="n">
         <v>1</v>
       </c>
       <c r="AF14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH14" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI14" t="n">
         <v>1</v>
@@ -2958,16 +3025,16 @@
         <v>13</v>
       </c>
       <c r="AN14" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO14" t="n">
         <v>8</v>
       </c>
       <c r="AP14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AQ14" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AR14" t="n">
         <v>3</v>
@@ -2988,13 +3055,13 @@
         <v>2</v>
       </c>
       <c r="AX14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AY14" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ14" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BA14" t="n">
         <v>7</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-12-2008-09</t>
+          <t>2009-03-12</t>
         </is>
       </c>
     </row>
@@ -3146,7 +3213,7 @@
         <v>16</v>
       </c>
       <c r="AP15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AQ15" t="n">
         <v>24</v>
@@ -3164,7 +3231,7 @@
         <v>30</v>
       </c>
       <c r="AV15" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AW15" t="n">
         <v>11</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-12-2008-09</t>
+          <t>2009-03-12</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>0</v>
       </c>
       <c r="AD16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE16" t="n">
         <v>13</v>
@@ -3337,7 +3404,7 @@
         <v>24</v>
       </c>
       <c r="AS16" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AT16" t="n">
         <v>28</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-12-2008-09</t>
+          <t>2009-03-12</t>
         </is>
       </c>
     </row>
@@ -3396,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E17" t="n">
         <v>30</v>
       </c>
       <c r="F17" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G17" t="n">
-        <v>0.455</v>
+        <v>0.448</v>
       </c>
       <c r="H17" t="n">
         <v>48.3</v>
@@ -3417,40 +3484,40 @@
         <v>82.09999999999999</v>
       </c>
       <c r="K17" t="n">
-        <v>0.447</v>
+        <v>0.448</v>
       </c>
       <c r="L17" t="n">
         <v>6</v>
       </c>
       <c r="M17" t="n">
-        <v>16.8</v>
+        <v>16.7</v>
       </c>
       <c r="N17" t="n">
-        <v>0.36</v>
+        <v>0.361</v>
       </c>
       <c r="O17" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="P17" t="n">
-        <v>26.1</v>
+        <v>26</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.784</v>
+        <v>0.783</v>
       </c>
       <c r="R17" t="n">
         <v>12.1</v>
       </c>
       <c r="S17" t="n">
-        <v>29.1</v>
+        <v>28.9</v>
       </c>
       <c r="T17" t="n">
-        <v>41.2</v>
+        <v>41.1</v>
       </c>
       <c r="U17" t="n">
         <v>21.7</v>
       </c>
       <c r="V17" t="n">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="W17" t="n">
         <v>7.4</v>
@@ -3462,16 +3529,16 @@
         <v>4.7</v>
       </c>
       <c r="Z17" t="n">
-        <v>24.2</v>
+        <v>24.3</v>
       </c>
       <c r="AA17" t="n">
-        <v>23.1</v>
+        <v>23</v>
       </c>
       <c r="AB17" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="AC17" t="n">
-        <v>-0.4</v>
+        <v>-0.6</v>
       </c>
       <c r="AD17" t="n">
         <v>1</v>
@@ -3480,7 +3547,7 @@
         <v>17</v>
       </c>
       <c r="AF17" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AG17" t="n">
         <v>17</v>
@@ -3495,7 +3562,7 @@
         <v>8</v>
       </c>
       <c r="AK17" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AL17" t="n">
         <v>21</v>
@@ -3507,10 +3574,10 @@
         <v>20</v>
       </c>
       <c r="AO17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AP17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AQ17" t="n">
         <v>11</v>
@@ -3519,10 +3586,10 @@
         <v>7</v>
       </c>
       <c r="AS17" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AT17" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AU17" t="n">
         <v>9</v>
@@ -3531,13 +3598,13 @@
         <v>13</v>
       </c>
       <c r="AW17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AX17" t="n">
         <v>29</v>
       </c>
       <c r="AY17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ17" t="n">
         <v>30</v>
@@ -3546,10 +3613,10 @@
         <v>4</v>
       </c>
       <c r="BB17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BC17" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-12-2008-09</t>
+          <t>2009-03-12</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-4.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE18" t="n">
         <v>25</v>
@@ -3674,7 +3741,7 @@
         <v>12</v>
       </c>
       <c r="AJ18" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AK18" t="n">
         <v>29</v>
@@ -3695,7 +3762,7 @@
         <v>17</v>
       </c>
       <c r="AQ18" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR18" t="n">
         <v>5</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-12-2008-09</t>
+          <t>2009-03-12</t>
         </is>
       </c>
     </row>
@@ -3838,16 +3905,16 @@
         <v>-2.2</v>
       </c>
       <c r="AD19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE19" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AF19" t="n">
         <v>17</v>
       </c>
       <c r="AG19" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AH19" t="n">
         <v>7</v>
@@ -3898,7 +3965,7 @@
         <v>18</v>
       </c>
       <c r="AX19" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AY19" t="n">
         <v>15</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-12-2008-09</t>
+          <t>2009-03-12</t>
         </is>
       </c>
     </row>
@@ -4089,7 +4156,7 @@
         <v>9</v>
       </c>
       <c r="BA20" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BB20" t="n">
         <v>25</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-12-2008-09</t>
+          <t>2009-03-12</t>
         </is>
       </c>
     </row>
@@ -4202,19 +4269,19 @@
         <v>-1.9</v>
       </c>
       <c r="AD21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE21" t="n">
         <v>22</v>
       </c>
       <c r="AF21" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG21" t="n">
         <v>22</v>
       </c>
       <c r="AH21" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI21" t="n">
         <v>5</v>
@@ -4268,7 +4335,7 @@
         <v>23</v>
       </c>
       <c r="AZ21" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BA21" t="n">
         <v>29</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-12-2008-09</t>
+          <t>2009-03-12</t>
         </is>
       </c>
     </row>
@@ -4396,10 +4463,10 @@
         <v>26</v>
       </c>
       <c r="AH22" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI22" t="n">
         <v>14</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>15</v>
       </c>
       <c r="AJ22" t="n">
         <v>10</v>
@@ -4417,7 +4484,7 @@
         <v>21</v>
       </c>
       <c r="AO22" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AP22" t="n">
         <v>10</v>
@@ -4450,7 +4517,7 @@
         <v>18</v>
       </c>
       <c r="AZ22" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BA22" t="n">
         <v>19</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-12-2008-09</t>
+          <t>2009-03-12</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>7.1</v>
       </c>
       <c r="AD23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE23" t="n">
         <v>4</v>
@@ -4584,7 +4651,7 @@
         <v>24</v>
       </c>
       <c r="AJ23" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AK23" t="n">
         <v>10</v>
@@ -4596,10 +4663,10 @@
         <v>2</v>
       </c>
       <c r="AN23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AO23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP23" t="n">
         <v>4</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-12-2008-09</t>
+          <t>2009-03-12</t>
         </is>
       </c>
     </row>
@@ -4754,7 +4821,7 @@
         <v>16</v>
       </c>
       <c r="AF24" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG24" t="n">
         <v>16</v>
@@ -4763,7 +4830,7 @@
         <v>26</v>
       </c>
       <c r="AI24" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AJ24" t="n">
         <v>16</v>
@@ -4784,7 +4851,7 @@
         <v>13</v>
       </c>
       <c r="AP24" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AQ24" t="n">
         <v>28</v>
@@ -4814,7 +4881,7 @@
         <v>16</v>
       </c>
       <c r="AZ24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA24" t="n">
         <v>10</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-12-2008-09</t>
+          <t>2009-03-12</t>
         </is>
       </c>
     </row>
@@ -4852,52 +4919,52 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E25" t="n">
         <v>34</v>
       </c>
       <c r="F25" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G25" t="n">
-        <v>0.523</v>
+        <v>0.531</v>
       </c>
       <c r="H25" t="n">
         <v>48.2</v>
       </c>
       <c r="I25" t="n">
-        <v>40.3</v>
+        <v>40.2</v>
       </c>
       <c r="J25" t="n">
         <v>80.3</v>
       </c>
       <c r="K25" t="n">
-        <v>0.502</v>
+        <v>0.501</v>
       </c>
       <c r="L25" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="M25" t="n">
         <v>17.3</v>
       </c>
       <c r="N25" t="n">
-        <v>0.383</v>
+        <v>0.386</v>
       </c>
       <c r="O25" t="n">
         <v>20.3</v>
       </c>
       <c r="P25" t="n">
-        <v>26.8</v>
+        <v>26.9</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.756</v>
+        <v>0.755</v>
       </c>
       <c r="R25" t="n">
         <v>10.2</v>
       </c>
       <c r="S25" t="n">
-        <v>31</v>
+        <v>31.1</v>
       </c>
       <c r="T25" t="n">
         <v>41.2</v>
@@ -4921,16 +4988,16 @@
         <v>20.8</v>
       </c>
       <c r="AA25" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="AB25" t="n">
         <v>107.5</v>
       </c>
       <c r="AC25" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="AD25" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="AE25" t="n">
         <v>14</v>
@@ -4942,7 +5009,7 @@
         <v>14</v>
       </c>
       <c r="AH25" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI25" t="n">
         <v>2</v>
@@ -4954,7 +5021,7 @@
         <v>1</v>
       </c>
       <c r="AL25" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AM25" t="n">
         <v>19</v>
@@ -4963,13 +5030,13 @@
         <v>5</v>
       </c>
       <c r="AO25" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AP25" t="n">
         <v>5</v>
       </c>
       <c r="AQ25" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AR25" t="n">
         <v>25</v>
@@ -4978,10 +5045,10 @@
         <v>9</v>
       </c>
       <c r="AT25" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AU25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV25" t="n">
         <v>29</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-12-2008-09</t>
+          <t>2009-03-12</t>
         </is>
       </c>
     </row>
@@ -5034,46 +5101,46 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E26" t="n">
         <v>40</v>
       </c>
       <c r="F26" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G26" t="n">
-        <v>0.635</v>
+        <v>0.625</v>
       </c>
       <c r="H26" t="n">
         <v>48.3</v>
       </c>
       <c r="I26" t="n">
-        <v>36.7</v>
+        <v>36.6</v>
       </c>
       <c r="J26" t="n">
-        <v>79.2</v>
+        <v>79.3</v>
       </c>
       <c r="K26" t="n">
-        <v>0.464</v>
+        <v>0.462</v>
       </c>
       <c r="L26" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="M26" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="N26" t="n">
-        <v>0.38</v>
+        <v>0.381</v>
       </c>
       <c r="O26" t="n">
-        <v>18.7</v>
+        <v>18.5</v>
       </c>
       <c r="P26" t="n">
-        <v>24.4</v>
+        <v>24.3</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.764</v>
+        <v>0.763</v>
       </c>
       <c r="R26" t="n">
         <v>12.9</v>
@@ -5082,7 +5149,7 @@
         <v>28.3</v>
       </c>
       <c r="T26" t="n">
-        <v>41.2</v>
+        <v>41.3</v>
       </c>
       <c r="U26" t="n">
         <v>20.3</v>
@@ -5097,37 +5164,37 @@
         <v>4.7</v>
       </c>
       <c r="Y26" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="Z26" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="AA26" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="AB26" t="n">
-        <v>99.3</v>
+        <v>99</v>
       </c>
       <c r="AC26" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="AD26" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="AE26" t="n">
         <v>9</v>
       </c>
       <c r="AF26" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AG26" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AH26" t="n">
         <v>16</v>
       </c>
       <c r="AI26" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AJ26" t="n">
         <v>22</v>
@@ -5145,7 +5212,7 @@
         <v>6</v>
       </c>
       <c r="AO26" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AP26" t="n">
         <v>18</v>
@@ -5160,7 +5227,7 @@
         <v>29</v>
       </c>
       <c r="AT26" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AU26" t="n">
         <v>20</v>
@@ -5187,7 +5254,7 @@
         <v>15</v>
       </c>
       <c r="BC26" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-12-2008-09</t>
+          <t>2009-03-12</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>-8.800000000000001</v>
       </c>
       <c r="AD27" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE27" t="n">
         <v>30</v>
@@ -5315,10 +5382,10 @@
         <v>13</v>
       </c>
       <c r="AK27" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL27" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM27" t="n">
         <v>14</v>
@@ -5327,7 +5394,7 @@
         <v>16</v>
       </c>
       <c r="AO27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AP27" t="n">
         <v>12</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-12-2008-09</t>
+          <t>2009-03-12</t>
         </is>
       </c>
     </row>
@@ -5398,16 +5465,16 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E28" t="n">
         <v>43</v>
       </c>
       <c r="F28" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G28" t="n">
-        <v>0.672</v>
+        <v>0.6830000000000001</v>
       </c>
       <c r="H28" t="n">
         <v>48.6</v>
@@ -5416,7 +5483,7 @@
         <v>37.2</v>
       </c>
       <c r="J28" t="n">
-        <v>79.7</v>
+        <v>79.8</v>
       </c>
       <c r="K28" t="n">
         <v>0.466</v>
@@ -5425,34 +5492,34 @@
         <v>8</v>
       </c>
       <c r="M28" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="N28" t="n">
-        <v>0.398</v>
+        <v>0.394</v>
       </c>
       <c r="O28" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="P28" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.767</v>
+        <v>0.77</v>
       </c>
       <c r="R28" t="n">
-        <v>8.800000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="S28" t="n">
-        <v>32.1</v>
+        <v>32.2</v>
       </c>
       <c r="T28" t="n">
-        <v>40.9</v>
+        <v>41</v>
       </c>
       <c r="U28" t="n">
         <v>21.8</v>
       </c>
       <c r="V28" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="W28" t="n">
         <v>5.8</v>
@@ -5461,22 +5528,22 @@
         <v>4.3</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Z28" t="n">
         <v>18.8</v>
       </c>
       <c r="AA28" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="AB28" t="n">
-        <v>97.5</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="AC28" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="AD28" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="AE28" t="n">
         <v>5</v>
@@ -5494,10 +5561,10 @@
         <v>10</v>
       </c>
       <c r="AJ28" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AK28" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AL28" t="n">
         <v>4</v>
@@ -5521,10 +5588,10 @@
         <v>30</v>
       </c>
       <c r="AS28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AT28" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AU28" t="n">
         <v>7</v>
@@ -5539,7 +5606,7 @@
         <v>23</v>
       </c>
       <c r="AY28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ28" t="n">
         <v>1</v>
@@ -5551,7 +5618,7 @@
         <v>23</v>
       </c>
       <c r="BC28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-12-2008-09</t>
+          <t>2009-03-12</t>
         </is>
       </c>
     </row>
@@ -5673,10 +5740,10 @@
         <v>21</v>
       </c>
       <c r="AI29" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AJ29" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AK29" t="n">
         <v>11</v>
@@ -5691,7 +5758,7 @@
         <v>12</v>
       </c>
       <c r="AO29" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP29" t="n">
         <v>28</v>
@@ -5721,7 +5788,7 @@
         <v>15</v>
       </c>
       <c r="AY29" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ29" t="n">
         <v>4</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-12-2008-09</t>
+          <t>2009-03-12</t>
         </is>
       </c>
     </row>
@@ -5846,10 +5913,10 @@
         <v>7</v>
       </c>
       <c r="AF30" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG30" t="n">
         <v>8</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>9</v>
       </c>
       <c r="AH30" t="n">
         <v>19</v>
@@ -5888,7 +5955,7 @@
         <v>22</v>
       </c>
       <c r="AT30" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AU30" t="n">
         <v>1</v>
@@ -5915,7 +5982,7 @@
         <v>6</v>
       </c>
       <c r="BC30" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-12-2008-09</t>
+          <t>2009-03-12</t>
         </is>
       </c>
     </row>
@@ -6043,7 +6110,7 @@
         <v>12</v>
       </c>
       <c r="AK31" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL31" t="n">
         <v>25</v>
@@ -6079,7 +6146,7 @@
         <v>12</v>
       </c>
       <c r="AW31" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AX31" t="n">
         <v>25</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-12-2008-09</t>
+          <t>2009-03-12</t>
         </is>
       </c>
     </row>
